--- a/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Sura - Claims\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B0673B-D0DC-41C2-9957-DB41F3C384DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
   <si>
     <t>Usuario</t>
   </si>
@@ -235,22 +228,28 @@
     <t>TipoAutoAsegurado</t>
   </si>
   <si>
-    <t>04104008962</t>
-  </si>
-  <si>
-    <t>29/10/2020</t>
-  </si>
-  <si>
     <t>12:30</t>
   </si>
   <si>
     <t>RGR101</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>04104015430</t>
+  </si>
+  <si>
+    <t>21/03/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,11 +608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,10 +725,10 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
@@ -737,17 +736,17 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>67</v>
+      <c r="E2" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I2">
         <v>32039201</v>
@@ -801,7 +800,7 @@
         <v>60</v>
       </c>
       <c r="AA2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB2">
         <v>2020</v>
@@ -1338,12 +1337,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2:J8" r:id="rId1" display="aseguradosgw@gmail.com"/>
-    <hyperlink ref="B2:B8" r:id="rId2" display="https://i-preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do"/>
-    <hyperlink ref="J9" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="J10" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="J2:J8" r:id="rId1" display="aseguradosgw@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2:B8" r:id="rId2" display="https://i-preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B0673B-D0DC-41C2-9957-DB41F3C384DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1731EF-2791-4B84-A315-197D082D5F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>Calle</t>
   </si>
   <si>
-    <t>Numero</t>
-  </si>
-  <si>
     <t>Otros</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>Choque</t>
   </si>
   <si>
-    <t>ANIO</t>
-  </si>
-  <si>
     <t>Marca</t>
   </si>
   <si>
@@ -244,6 +238,12 @@
   </si>
   <si>
     <t>21/03/2022</t>
+  </si>
+  <si>
+    <t>NumeroCalle</t>
+  </si>
+  <si>
+    <t>Anio</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,10 +633,10 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -681,7 +681,7 @@
         <v>19</v>
       </c>
       <c r="Q1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="R1" t="s">
         <v>5</v>
@@ -696,81 +696,81 @@
         <v>7</v>
       </c>
       <c r="W1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>57</v>
-      </c>
       <c r="AA1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" t="s">
-        <v>65</v>
-      </c>
       <c r="AE1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2">
         <v>32039201</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
       <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
       </c>
       <c r="Q2">
         <v>967</v>
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s">
         <v>8</v>
@@ -791,78 +791,78 @@
         <v>2020</v>
       </c>
       <c r="X2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>60</v>
-      </c>
       <c r="AA2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB2">
         <v>2020</v>
       </c>
       <c r="AC2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD2">
         <v>147</v>
       </c>
       <c r="AE2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I3">
         <v>32039201</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
       </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>36</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
       </c>
       <c r="Q3">
         <v>967</v>
@@ -871,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s">
         <v>8</v>
@@ -882,52 +882,52 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I4">
         <v>32039201</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
       <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
         <v>35</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>36</v>
-      </c>
-      <c r="P4" t="s">
-        <v>37</v>
       </c>
       <c r="Q4">
         <v>967</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s">
         <v>8</v>
@@ -947,52 +947,52 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I5">
         <v>32039201</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>19</v>
       </c>
       <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
         <v>35</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>36</v>
-      </c>
-      <c r="P5" t="s">
-        <v>37</v>
       </c>
       <c r="Q5">
         <v>967</v>
@@ -1001,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s">
         <v>8</v>
@@ -1012,52 +1012,52 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I6">
         <v>32039201</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
       </c>
       <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
         <v>35</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>36</v>
-      </c>
-      <c r="P6" t="s">
-        <v>37</v>
       </c>
       <c r="Q6">
         <v>967</v>
@@ -1066,7 +1066,7 @@
         <v>10</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s">
         <v>8</v>
@@ -1077,52 +1077,52 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I7">
         <v>32039201</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
       </c>
       <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
         <v>35</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>36</v>
-      </c>
-      <c r="P7" t="s">
-        <v>37</v>
       </c>
       <c r="Q7">
         <v>967</v>
@@ -1131,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U7" t="s">
         <v>8</v>
@@ -1142,52 +1142,52 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I8">
         <v>32039201</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
         <v>33</v>
       </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
         <v>19</v>
       </c>
       <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" t="s">
         <v>35</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>36</v>
-      </c>
-      <c r="P8" t="s">
-        <v>37</v>
       </c>
       <c r="Q8">
         <v>967</v>
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U8" t="s">
         <v>8</v>
@@ -1207,52 +1207,52 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I9">
         <v>32039201</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
         <v>33</v>
       </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
         <v>19</v>
       </c>
       <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>36</v>
-      </c>
-      <c r="P9" t="s">
-        <v>37</v>
       </c>
       <c r="Q9">
         <v>967</v>
@@ -1261,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="S9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U9" t="s">
         <v>8</v>
@@ -1272,61 +1272,61 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I10">
         <v>32039201</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
         <v>19</v>
       </c>
       <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>36</v>
-      </c>
-      <c r="P10" t="s">
-        <v>37</v>
       </c>
       <c r="Q10">
         <v>967</v>
       </c>
       <c r="R10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" t="s">
         <v>47</v>
-      </c>
-      <c r="S10" t="s">
-        <v>48</v>
       </c>
       <c r="U10" t="s">
         <v>8</v>

--- a/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1731EF-2791-4B84-A315-197D082D5F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A89FBF4-D5F8-41D9-BA9B-CF52C7081C8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,16 +234,16 @@
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t>04104015430</t>
-  </si>
-  <si>
-    <t>21/03/2022</t>
-  </si>
-  <si>
     <t>NumeroCalle</t>
   </si>
   <si>
     <t>Anio</t>
+  </si>
+  <si>
+    <t>19/03/2021</t>
+  </si>
+  <si>
+    <t>04104015647</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
         <v>19</v>
       </c>
       <c r="Q1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R1" t="s">
         <v>5</v>
@@ -696,7 +696,7 @@
         <v>7</v>
       </c>
       <c r="W1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X1" t="s">
         <v>53</v>
@@ -737,13 +737,13 @@
         <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>65</v>

--- a/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A89FBF4-D5F8-41D9-BA9B-CF52C7081C8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6255710-7BBE-40A3-A675-E548BFEF5624}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="76">
   <si>
     <t>Usuario</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Motor</t>
   </si>
   <si>
-    <t>04005237925</t>
-  </si>
-  <si>
     <t>04005237933</t>
   </si>
   <si>
@@ -244,6 +241,18 @@
   </si>
   <si>
     <t>04104015647</t>
+  </si>
+  <si>
+    <t>04104014484</t>
+  </si>
+  <si>
+    <t>15/03/2021</t>
+  </si>
+  <si>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
 </sst>
 </file>
@@ -612,7 +621,7 @@
   <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,10 +642,10 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -681,7 +690,7 @@
         <v>19</v>
       </c>
       <c r="Q1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R1" t="s">
         <v>5</v>
@@ -696,81 +705,81 @@
         <v>7</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
-        <v>55</v>
-      </c>
       <c r="AA1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" t="s">
-        <v>61</v>
-      </c>
       <c r="AD1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" t="s">
         <v>63</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2">
         <v>32039201</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
       <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
       </c>
       <c r="Q2">
         <v>967</v>
@@ -779,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
         <v>8</v>
@@ -791,51 +800,51 @@
         <v>2020</v>
       </c>
       <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" t="s">
-        <v>58</v>
-      </c>
       <c r="AA2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB2">
         <v>2020</v>
       </c>
       <c r="AC2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD2">
         <v>147</v>
       </c>
       <c r="AE2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>22</v>
@@ -844,10 +853,10 @@
         <v>32039201</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
         <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -856,13 +865,13 @@
         <v>19</v>
       </c>
       <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
       </c>
       <c r="Q3">
         <v>967</v>
@@ -871,7 +880,7 @@
         <v>10</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s">
         <v>8</v>
@@ -882,25 +891,25 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>22</v>
@@ -909,10 +918,10 @@
         <v>32039201</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
@@ -921,13 +930,13 @@
         <v>19</v>
       </c>
       <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
         <v>34</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>35</v>
-      </c>
-      <c r="P4" t="s">
-        <v>36</v>
       </c>
       <c r="Q4">
         <v>967</v>
@@ -936,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
         <v>8</v>
@@ -947,25 +956,25 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>22</v>
@@ -974,10 +983,10 @@
         <v>32039201</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
         <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
@@ -986,13 +995,13 @@
         <v>19</v>
       </c>
       <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
         <v>34</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>36</v>
       </c>
       <c r="Q5">
         <v>967</v>
@@ -1001,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="S5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s">
         <v>8</v>
@@ -1012,25 +1021,25 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>22</v>
@@ -1039,10 +1048,10 @@
         <v>32039201</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
         <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
       </c>
       <c r="L6" t="s">
         <v>20</v>
@@ -1051,13 +1060,13 @@
         <v>19</v>
       </c>
       <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
         <v>34</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>35</v>
-      </c>
-      <c r="P6" t="s">
-        <v>36</v>
       </c>
       <c r="Q6">
         <v>967</v>
@@ -1066,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="S6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s">
         <v>8</v>
@@ -1077,25 +1086,25 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>22</v>
@@ -1104,10 +1113,10 @@
         <v>32039201</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
         <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
@@ -1116,13 +1125,13 @@
         <v>19</v>
       </c>
       <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
         <v>34</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>35</v>
-      </c>
-      <c r="P7" t="s">
-        <v>36</v>
       </c>
       <c r="Q7">
         <v>967</v>
@@ -1131,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="S7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U7" t="s">
         <v>8</v>
@@ -1142,25 +1151,25 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>22</v>
@@ -1169,10 +1178,10 @@
         <v>32039201</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
         <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
       </c>
       <c r="L8" t="s">
         <v>20</v>
@@ -1181,13 +1190,13 @@
         <v>19</v>
       </c>
       <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>35</v>
-      </c>
-      <c r="P8" t="s">
-        <v>36</v>
       </c>
       <c r="Q8">
         <v>967</v>
@@ -1196,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="S8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s">
         <v>8</v>
@@ -1207,25 +1216,25 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>22</v>
@@ -1234,10 +1243,10 @@
         <v>32039201</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
         <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
@@ -1246,13 +1255,13 @@
         <v>19</v>
       </c>
       <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>35</v>
-      </c>
-      <c r="P9" t="s">
-        <v>36</v>
       </c>
       <c r="Q9">
         <v>967</v>
@@ -1261,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="S9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s">
         <v>8</v>
@@ -1272,25 +1281,25 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>22</v>
@@ -1299,10 +1308,10 @@
         <v>32039201</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
@@ -1311,22 +1320,22 @@
         <v>19</v>
       </c>
       <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
         <v>34</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>35</v>
-      </c>
-      <c r="P10" t="s">
-        <v>36</v>
       </c>
       <c r="Q10">
         <v>967</v>
       </c>
       <c r="R10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" t="s">
         <v>46</v>
-      </c>
-      <c r="S10" t="s">
-        <v>47</v>
       </c>
       <c r="U10" t="s">
         <v>8</v>
@@ -1343,8 +1352,9 @@
     <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="J10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{ACB4650E-E424-465F-AA72-57AC31B9C5CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6255710-7BBE-40A3-A675-E548BFEF5624}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136EF7C6-A311-4C06-B50D-2987BAD76720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="84">
   <si>
     <t>Usuario</t>
   </si>
@@ -253,13 +253,37 @@
   </si>
   <si>
     <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>RGR102</t>
+  </si>
+  <si>
+    <t>RGR103</t>
+  </si>
+  <si>
+    <t>RGR104</t>
+  </si>
+  <si>
+    <t>RGR105</t>
+  </si>
+  <si>
+    <t>RGR106</t>
+  </si>
+  <si>
+    <t>RGR107</t>
+  </si>
+  <si>
+    <t>RGR108</t>
+  </si>
+  <si>
+    <t>RGR109</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +295,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -620,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,6 +918,33 @@
       <c r="V3" t="s">
         <v>9</v>
       </c>
+      <c r="W3">
+        <v>2020</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB3">
+        <v>2020</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3">
+        <v>147</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -953,6 +1010,33 @@
       <c r="V4" t="s">
         <v>9</v>
       </c>
+      <c r="W4">
+        <v>2020</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4">
+        <v>2020</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD4">
+        <v>147</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1018,6 +1102,33 @@
       <c r="V5" t="s">
         <v>9</v>
       </c>
+      <c r="W5">
+        <v>2020</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5">
+        <v>2020</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD5">
+        <v>147</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1083,6 +1194,33 @@
       <c r="V6" t="s">
         <v>9</v>
       </c>
+      <c r="W6">
+        <v>2020</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB6">
+        <v>2020</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD6">
+        <v>147</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1148,6 +1286,33 @@
       <c r="V7" t="s">
         <v>9</v>
       </c>
+      <c r="W7">
+        <v>2020</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7">
+        <v>2020</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7">
+        <v>147</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1213,6 +1378,33 @@
       <c r="V8" t="s">
         <v>9</v>
       </c>
+      <c r="W8">
+        <v>2020</v>
+      </c>
+      <c r="X8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB8">
+        <v>2020</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD8">
+        <v>147</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1278,6 +1470,33 @@
       <c r="V9" t="s">
         <v>9</v>
       </c>
+      <c r="W9">
+        <v>2020</v>
+      </c>
+      <c r="X9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB9">
+        <v>2020</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD9">
+        <v>147</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1343,8 +1562,36 @@
       <c r="V10" t="s">
         <v>9</v>
       </c>
+      <c r="W10">
+        <v>2020</v>
+      </c>
+      <c r="X10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB10">
+        <v>2020</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD10">
+        <v>147</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J2:J8" r:id="rId1" display="aseguradosgw@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B2:B8" r:id="rId2" display="https://i-preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136EF7C6-A311-4C06-B50D-2987BAD76720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F68066-477A-4470-B7A9-A3E69A33E154}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,12 +237,6 @@
     <t>Anio</t>
   </si>
   <si>
-    <t>19/03/2021</t>
-  </si>
-  <si>
-    <t>04104015647</t>
-  </si>
-  <si>
     <t>04104014484</t>
   </si>
   <si>
@@ -277,6 +271,12 @@
   </si>
   <si>
     <t>RGR109</t>
+  </si>
+  <si>
+    <t>26/05/2021</t>
+  </si>
+  <si>
+    <t>04104018423</t>
   </si>
 </sst>
 </file>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,14 +775,14 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>71</v>
+      <c r="E2" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>64</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
@@ -868,13 +868,13 @@
         <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>22</v>
@@ -931,7 +931,7 @@
         <v>57</v>
       </c>
       <c r="AA3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB3">
         <v>2020</v>
@@ -1023,7 +1023,7 @@
         <v>57</v>
       </c>
       <c r="AA4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AB4">
         <v>2020</v>
@@ -1115,7 +1115,7 @@
         <v>57</v>
       </c>
       <c r="AA5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB5">
         <v>2020</v>
@@ -1207,7 +1207,7 @@
         <v>57</v>
       </c>
       <c r="AA6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AB6">
         <v>2020</v>
@@ -1299,7 +1299,7 @@
         <v>57</v>
       </c>
       <c r="AA7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB7">
         <v>2020</v>
@@ -1391,7 +1391,7 @@
         <v>57</v>
       </c>
       <c r="AA8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AB8">
         <v>2020</v>
@@ -1483,7 +1483,7 @@
         <v>57</v>
       </c>
       <c r="AA9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB9">
         <v>2020</v>
@@ -1575,7 +1575,7 @@
         <v>57</v>
       </c>
       <c r="AA10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB10">
         <v>2020</v>

--- a/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F68066-477A-4470-B7A9-A3E69A33E154}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C132C7-3CB0-4F3B-8CAC-9BDB43AC4510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>04104014484</t>
   </si>
   <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
     <t>preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
@@ -273,10 +270,13 @@
     <t>RGR109</t>
   </si>
   <si>
-    <t>26/05/2021</t>
-  </si>
-  <si>
     <t>04104018423</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>09/06/2021</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
@@ -874,7 +874,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>22</v>
@@ -931,7 +931,7 @@
         <v>57</v>
       </c>
       <c r="AA3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB3">
         <v>2020</v>
@@ -1023,7 +1023,7 @@
         <v>57</v>
       </c>
       <c r="AA4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB4">
         <v>2020</v>
@@ -1115,7 +1115,7 @@
         <v>57</v>
       </c>
       <c r="AA5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB5">
         <v>2020</v>
@@ -1207,7 +1207,7 @@
         <v>57</v>
       </c>
       <c r="AA6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB6">
         <v>2020</v>
@@ -1299,7 +1299,7 @@
         <v>57</v>
       </c>
       <c r="AA7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB7">
         <v>2020</v>
@@ -1391,7 +1391,7 @@
         <v>57</v>
       </c>
       <c r="AA8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB8">
         <v>2020</v>
@@ -1483,7 +1483,7 @@
         <v>57</v>
       </c>
       <c r="AA9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB9">
         <v>2020</v>
@@ -1575,7 +1575,7 @@
         <v>57</v>
       </c>
       <c r="AA10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB10">
         <v>2020</v>

--- a/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorUBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C132C7-3CB0-4F3B-8CAC-9BDB43AC4510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00871AD4-62AB-42DB-84D4-64FB5B963709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,13 +270,13 @@
     <t>RGR109</t>
   </si>
   <si>
-    <t>04104018423</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
     <t>09/06/2021</t>
+  </si>
+  <si>
+    <t>04104018867</t>
+  </si>
+  <si>
+    <t>23/06/2021</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>64</v>
@@ -874,7 +874,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>22</v>
